--- a/project/HW2/22127410/release/22127410_BugReport.xlsx
+++ b/project/HW2/22127410/release/22127410_BugReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhthuy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhthuy/Documents/Testing-PRJ-SM/project/HW2/22127410/release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD25B4-0ADB-3346-9D8F-EFBD16A6412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76526B55-BFD9-4F41-8E32-BBE6A06D91C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test summary report" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="186">
   <si>
     <t>Tester</t>
   </si>
@@ -1013,6 +1013,21 @@
   </si>
   <si>
     <t>Screenshots</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Blocker</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1093,12 +1108,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1109,18 +1118,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1132,6 +1143,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1392,21 +1409,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:M37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="1">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N37" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Defect ID" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Defect Title" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Defect Description" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{481DB5E1-8C0A-1141-BE4B-253435B69B8C}" name="Steps to Reproduce" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{29F06308-5E19-B442-BFD9-F2A1F77FCD64}" name="Expected Result" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{ACDC4036-2AFE-8741-B938-4C882D635CA7}" name="Actual Result" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{538B3C11-634B-9443-BF24-DD5F74863919}" name="Screenshots" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Function ID" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Severity" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Reported By" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date Reported" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Status" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{538B3C11-634B-9443-BF24-DD5F74863919}" name="Screenshots" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Function ID" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{C41F3AD9-4CDE-FD43-98CF-5619E5926132}" name="Severity" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priority" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Reported By" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date Reported" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Status" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1711,27 +1729,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>45811</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="11">
+        <v>45811</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1745,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="110" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1770,7 +1788,7 @@
     <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1799,19 +1817,22 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1824,32 +1845,35 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="e" vm="1">
+      <c r="G2" s="5" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1862,32 +1886,35 @@
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="e" vm="2">
+      <c r="G3" s="5" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1900,32 +1927,35 @@
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="e" vm="3">
+      <c r="G4" s="5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1938,32 +1968,35 @@
       <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="e" vm="4">
+      <c r="G5" s="5" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1976,32 +2009,35 @@
       <c r="D6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7" t="e" vm="5">
+      <c r="G6" s="5" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2014,32 +2050,35 @@
       <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="e" vm="6">
+      <c r="G7" s="5" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -2052,32 +2091,35 @@
       <c r="D8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="7" t="e" vm="7">
+      <c r="G8" s="5" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -2090,32 +2132,35 @@
       <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="7" t="e" vm="8">
+      <c r="G9" s="5" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2128,32 +2173,35 @@
       <c r="D10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="e" vm="9">
+      <c r="G10" s="5" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2169,29 +2217,32 @@
       <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="7" t="e" vm="10">
+      <c r="G11" s="5" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -2207,29 +2258,32 @@
       <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="7" t="e" vm="11">
+      <c r="G12" s="5" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2245,29 +2299,32 @@
       <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="7" t="e" vm="12">
+      <c r="G13" s="5" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2283,29 +2340,32 @@
       <c r="E14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="7" t="e" vm="13">
+      <c r="G14" s="5" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2321,29 +2381,32 @@
       <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="7" t="e" vm="14">
+      <c r="G15" s="5" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2359,27 +2422,30 @@
       <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2395,27 +2461,30 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -2431,27 +2500,30 @@
       <c r="E18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2467,27 +2539,30 @@
       <c r="E19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -2500,30 +2575,33 @@
       <c r="D20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -2539,29 +2617,32 @@
       <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="7" t="e" vm="15">
+      <c r="G21" s="5" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -2586,20 +2667,23 @@
       <c r="H22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
@@ -2624,20 +2708,23 @@
       <c r="H23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -2662,20 +2749,23 @@
       <c r="H24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -2700,20 +2790,23 @@
       <c r="H25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
@@ -2738,20 +2831,23 @@
       <c r="H26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
@@ -2777,19 +2873,22 @@
         <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
@@ -2815,19 +2914,22 @@
         <v>45</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>168</v>
       </c>
@@ -2852,20 +2954,23 @@
       <c r="H29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>169</v>
       </c>
@@ -2890,20 +2995,23 @@
       <c r="H30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>170</v>
       </c>
@@ -2928,20 +3036,23 @@
       <c r="H31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -2966,20 +3077,23 @@
       <c r="H32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>172</v>
       </c>
@@ -3004,20 +3118,23 @@
       <c r="H33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>173</v>
       </c>
@@ -3043,19 +3160,22 @@
         <v>45</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>174</v>
       </c>
@@ -3081,19 +3201,22 @@
         <v>45</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>175</v>
       </c>
@@ -3119,19 +3242,22 @@
         <v>45</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>176</v>
       </c>
@@ -3157,23 +3283,26 @@
         <v>45</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="8">
-        <v>45811</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K39" s="6"/>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="6">
+        <v>45811</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
